--- a/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 29,09</t>
+          <t>13,85; 29,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 26,42</t>
+          <t>12,18; 26,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 30,85</t>
+          <t>15,42; 30,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,77; 36,89</t>
+          <t>18,06; 35,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 37,79</t>
+          <t>21,77; 38,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,13; 34,68</t>
+          <t>17,76; 36,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,86; 38,65</t>
+          <t>21,23; 38,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 39,39</t>
+          <t>27,15; 39,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,59; 30,45</t>
+          <t>19,15; 30,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 28,03</t>
+          <t>17,0; 28,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 31,64</t>
+          <t>20,34; 31,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,87; 35,37</t>
+          <t>25,11; 35,34</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,89</t>
+          <t>13,42; 19,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,91</t>
+          <t>15,03; 21,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 18,85</t>
+          <t>12,47; 18,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 26,04</t>
+          <t>19,46; 26,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,52; 34,0</t>
+          <t>26,16; 33,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,72</t>
+          <t>23,95; 31,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,11; 30,47</t>
+          <t>23,13; 31,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,5; 28,5</t>
+          <t>21,58; 28,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,26</t>
+          <t>20,84; 25,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 25,56</t>
+          <t>20,56; 25,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 23,75</t>
+          <t>18,82; 23,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,66; 26,39</t>
+          <t>21,71; 26,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 18,15</t>
+          <t>13,33; 18,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,08</t>
+          <t>15,38; 20,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,11</t>
+          <t>13,35; 17,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 16,78</t>
+          <t>11,62; 17,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,56; 34,79</t>
+          <t>29,01; 35,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,66; 30,55</t>
+          <t>24,78; 30,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,42; 26,92</t>
+          <t>21,48; 26,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,3; 26,73</t>
+          <t>22,39; 26,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 25,78</t>
+          <t>21,7; 25,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,51; 24,41</t>
+          <t>20,65; 24,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 21,79</t>
+          <t>18,13; 21,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 20,99</t>
+          <t>17,64; 21,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,8</t>
+          <t>13,27; 18,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,67; 19,5</t>
+          <t>13,52; 19,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 18,85</t>
+          <t>13,05; 18,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 18,97</t>
+          <t>13,19; 19,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,92; 29,45</t>
+          <t>23,32; 29,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,21</t>
+          <t>24,59; 31,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 25,14</t>
+          <t>18,84; 25,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,08; 21,52</t>
+          <t>12,07; 21,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 23,52</t>
+          <t>19,13; 23,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 24,41</t>
+          <t>19,85; 24,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,26</t>
+          <t>16,86; 21,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 19,06</t>
+          <t>13,29; 19,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,65</t>
+          <t>12,46; 16,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,6</t>
+          <t>12,67; 17,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,48</t>
+          <t>12,68; 17,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,72; 21,5</t>
+          <t>16,88; 21,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,58; 29,24</t>
+          <t>23,71; 29,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,11; 27,45</t>
+          <t>21,93; 27,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,94</t>
+          <t>20,35; 25,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,09; 26,78</t>
+          <t>22,15; 26,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,96; 22,7</t>
+          <t>18,99; 22,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,28; 22,12</t>
+          <t>18,25; 21,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 21,1</t>
+          <t>17,42; 21,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,5; 23,88</t>
+          <t>20,46; 23,82</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,93</t>
+          <t>14,49; 17,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,33; 17,99</t>
+          <t>15,35; 18,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,93</t>
+          <t>14,48; 16,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 19,2</t>
+          <t>16,23; 19,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,3</t>
+          <t>27,14; 30,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,32</t>
+          <t>25,17; 28,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,34</t>
+          <t>22,31; 25,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,9; 24,72</t>
+          <t>20,77; 24,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,18; 23,25</t>
+          <t>21,36; 23,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,78; 22,83</t>
+          <t>20,72; 22,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,92; 20,98</t>
+          <t>18,9; 20,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,45; 21,7</t>
+          <t>19,49; 21,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,85; 29,26</t>
+          <t>13,69; 29,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 26,31</t>
+          <t>11,94; 26,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,42; 30,7</t>
+          <t>15,99; 31,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,77; 38,01</t>
+          <t>21,29; 37,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 36,3</t>
+          <t>17,83; 34,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,23; 38,16</t>
+          <t>21,86; 38,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,15; 30,22</t>
+          <t>19,21; 30,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,0; 28,3</t>
+          <t>16,93; 27,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,34; 31,67</t>
+          <t>20,36; 31,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 19,69</t>
+          <t>13,6; 19,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,56</t>
+          <t>14,81; 21,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,82</t>
+          <t>12,58; 18,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,16; 33,94</t>
+          <t>26,2; 33,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,95; 31,71</t>
+          <t>24,44; 32,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,13; 31,05</t>
+          <t>23,2; 30,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,84; 25,71</t>
+          <t>20,95; 25,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,56; 25,83</t>
+          <t>20,55; 25,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,82; 23,63</t>
+          <t>18,62; 23,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 18,09</t>
+          <t>13,32; 18,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,32</t>
+          <t>15,12; 20,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 17,86</t>
+          <t>13,53; 18,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,01; 35,02</t>
+          <t>28,88; 34,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,78; 30,37</t>
+          <t>24,64; 30,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,48; 26,97</t>
+          <t>21,28; 27,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,7; 25,52</t>
+          <t>21,82; 25,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,65; 24,52</t>
+          <t>20,47; 24,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 21,69</t>
+          <t>18,11; 21,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,52; 19,28</t>
+          <t>13,73; 19,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,05; 18,85</t>
+          <t>13,15; 18,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,32; 29,65</t>
+          <t>23,15; 29,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,59; 31,15</t>
+          <t>24,84; 31,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,84; 25,01</t>
+          <t>19,12; 25,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 23,37</t>
+          <t>18,98; 23,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,85; 24,67</t>
+          <t>19,95; 24,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 21,1</t>
+          <t>16,74; 21,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,75</t>
+          <t>12,4; 16,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 17,41</t>
+          <t>12,59; 17,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,52</t>
+          <t>12,8; 17,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,71; 29,25</t>
+          <t>23,61; 29,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,93; 27,42</t>
+          <t>22,24; 27,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,35; 25,82</t>
+          <t>20,33; 25,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,99; 22,59</t>
+          <t>18,96; 22,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,97</t>
+          <t>18,3; 21,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 21,09</t>
+          <t>17,37; 21,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,01</t>
+          <t>14,63; 17,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,35; 18,06</t>
+          <t>15,29; 18,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,48; 16,88</t>
+          <t>14,38; 16,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,14; 30,26</t>
+          <t>27,13; 30,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,17; 28,22</t>
+          <t>25,27; 28,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,31; 25,35</t>
+          <t>22,37; 25,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,36; 23,4</t>
+          <t>21,33; 23,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,72; 22,83</t>
+          <t>20,79; 22,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,9; 20,89</t>
+          <t>18,99; 20,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 29,68</t>
+          <t>13,72; 29,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,94; 26,24</t>
+          <t>11,91; 26,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,99; 31,64</t>
+          <t>15,55; 30,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,06; 35,46</t>
+          <t>18,77; 36,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,29; 37,21</t>
+          <t>21,51; 37,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,83; 34,85</t>
+          <t>18,13; 34,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,86; 38,79</t>
+          <t>20,86; 38,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,15; 39,14</t>
+          <t>26,42; 39,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 30,26</t>
+          <t>19,59; 30,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 27,64</t>
+          <t>16,88; 28,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,36; 31,61</t>
+          <t>20,02; 31,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,11; 35,34</t>
+          <t>24,87; 35,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,6; 19,49</t>
+          <t>13,5; 19,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 21,47</t>
+          <t>14,99; 21,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 18,91</t>
+          <t>12,56; 18,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 26,1</t>
+          <t>18,97; 26,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 33,64</t>
+          <t>26,52; 34,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,44; 32,25</t>
+          <t>23,86; 31,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,2; 30,76</t>
+          <t>23,11; 30,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,52</t>
+          <t>21,5; 28,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,95; 25,79</t>
+          <t>20,99; 26,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,55; 25,79</t>
+          <t>20,71; 25,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,62; 23,65</t>
+          <t>19,01; 23,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,71; 26,32</t>
+          <t>21,66; 26,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 18,09</t>
+          <t>13,28; 18,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 20,03</t>
+          <t>15,24; 20,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 18,07</t>
+          <t>13,55; 18,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,62; 17,01</t>
+          <t>11,73; 16,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,88; 34,91</t>
+          <t>28,56; 34,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,64; 30,34</t>
+          <t>24,66; 30,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,28; 27,08</t>
+          <t>21,42; 26,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,39; 26,74</t>
+          <t>22,3; 26,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,82; 25,58</t>
+          <t>22,09; 25,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,47; 24,52</t>
+          <t>20,51; 24,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 21,66</t>
+          <t>18,14; 21,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 21,03</t>
+          <t>17,41; 20,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 18,81</t>
+          <t>13,14; 18,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,73; 19,34</t>
+          <t>13,67; 19,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 18,75</t>
+          <t>13,13; 18,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,19; 19,07</t>
+          <t>13,12; 18,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 29,7</t>
+          <t>22,92; 29,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,84; 31,28</t>
+          <t>24,5; 31,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,12; 25,35</t>
+          <t>18,81; 25,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 21,67</t>
+          <t>12,08; 21,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,98; 23,35</t>
+          <t>18,91; 23,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 24,34</t>
+          <t>19,8; 24,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 21,05</t>
+          <t>16,92; 21,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 19,28</t>
+          <t>13,12; 19,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,4; 16,82</t>
+          <t>12,15; 16,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,59; 17,41</t>
+          <t>12,48; 17,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,8; 17,63</t>
+          <t>12,82; 17,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,82</t>
+          <t>16,72; 21,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,61; 29,41</t>
+          <t>23,58; 29,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,24; 27,49</t>
+          <t>22,11; 27,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,78</t>
+          <t>20,3; 25,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,15; 26,94</t>
+          <t>22,09; 26,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,96; 22,54</t>
+          <t>18,96; 22,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 21,85</t>
+          <t>18,28; 22,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 21,2</t>
+          <t>17,37; 21,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,46; 23,82</t>
+          <t>20,5; 23,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 17,09</t>
+          <t>14,38; 16,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,29; 18,01</t>
+          <t>15,33; 17,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,86</t>
+          <t>14,31; 16,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,23; 19,09</t>
+          <t>16,43; 19,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,13; 30,22</t>
+          <t>27,11; 30,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,27; 28,17</t>
+          <t>25,24; 28,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,28</t>
+          <t>22,37; 25,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,77; 24,8</t>
+          <t>20,9; 24,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,33; 23,35</t>
+          <t>21,18; 23,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,79; 22,69</t>
+          <t>20,78; 22,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,99; 20,95</t>
+          <t>18,92; 20,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,49; 21,8</t>
+          <t>19,45; 21,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>24,28%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 29,09</t>
+          <t>14,37; 20,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 26,42</t>
+          <t>15,37; 21,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 30,85</t>
+          <t>14,06; 19,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,77; 36,89</t>
+          <t>19,4; 26,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 37,79</t>
+          <t>26,74; 33,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,13; 34,68</t>
+          <t>23,9; 31,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,86; 38,65</t>
+          <t>23,34; 30,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 39,39</t>
+          <t>20,73; 28,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,59; 30,45</t>
+          <t>21,39; 25,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 28,03</t>
+          <t>20,5; 25,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 31,64</t>
+          <t>19,56; 24,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,87; 35,37</t>
+          <t>21,39; 26,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>17,41%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,89</t>
+          <t>13,28; 18,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,91</t>
+          <t>15,24; 20,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 18,85</t>
+          <t>13,55; 18,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 26,04</t>
+          <t>6,52; 15,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,52; 34,0</t>
+          <t>28,56; 34,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,72</t>
+          <t>24,66; 30,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,11; 30,47</t>
+          <t>21,42; 26,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,5; 28,5</t>
+          <t>22,43; 26,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,26</t>
+          <t>22,09; 25,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 25,56</t>
+          <t>20,51; 24,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 23,75</t>
+          <t>18,14; 21,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,66; 26,39</t>
+          <t>12,1; 20,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>15,76%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 18,15</t>
+          <t>13,14; 18,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,08</t>
+          <t>13,67; 19,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,11</t>
+          <t>13,13; 18,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 16,78</t>
+          <t>13,04; 18,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,56; 34,79</t>
+          <t>22,92; 29,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,66; 30,55</t>
+          <t>24,5; 31,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,42; 26,92</t>
+          <t>18,81; 25,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,3; 26,73</t>
+          <t>8,61; 21,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 25,78</t>
+          <t>18,91; 23,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,51; 24,41</t>
+          <t>19,8; 24,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 21,79</t>
+          <t>16,92; 21,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 20,99</t>
+          <t>10,31; 18,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>21,12%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,8</t>
+          <t>12,15; 16,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,67; 19,5</t>
+          <t>12,48; 17,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 18,85</t>
+          <t>12,82; 17,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 18,97</t>
+          <t>16,49; 21,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,92; 29,45</t>
+          <t>23,58; 29,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,21</t>
+          <t>22,11; 27,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 25,14</t>
+          <t>20,3; 25,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,08; 21,52</t>
+          <t>18,73; 25,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 23,52</t>
+          <t>18,96; 22,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 24,41</t>
+          <t>18,28; 22,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,26</t>
+          <t>17,37; 21,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 19,06</t>
+          <t>18,72; 23,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>19,39%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,65</t>
+          <t>14,38; 16,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,6</t>
+          <t>15,33; 17,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,48</t>
+          <t>14,31; 16,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,72; 21,5</t>
+          <t>13,19; 18,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,58; 29,24</t>
+          <t>27,11; 30,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,11; 27,45</t>
+          <t>25,24; 28,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,94</t>
+          <t>22,37; 25,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,09; 26,78</t>
+          <t>17,48; 24,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,96; 22,7</t>
+          <t>21,18; 23,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,28; 22,12</t>
+          <t>20,78; 22,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 21,1</t>
+          <t>18,92; 20,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,5; 23,88</t>
+          <t>16,75; 20,78</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,64%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>16,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,7%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,73%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>28,64%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>26,69%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>23,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>23,34%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>22,24%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>21,77%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>19,88%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>20,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>14,38; 16,93</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>15,33; 17,99</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,31; 16,93</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>16,43; 19,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>27,11; 30,3</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>25,24; 28,32</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>22,37; 25,34</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>20,9; 24,72</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>21,18; 23,25</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>20,78; 22,83</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>18,92; 20,98</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>19,45; 21,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,37; 20,07</t>
+          <t>14,37; 20,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,38</t>
+          <t>15,27; 21,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 19,64</t>
+          <t>13,85; 19,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 26,05</t>
+          <t>19,92; 26,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,74; 33,32</t>
+          <t>26,78; 33,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,9; 31,01</t>
+          <t>24,45; 31,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 30,52</t>
+          <t>23,7; 30,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 28,65</t>
+          <t>20,36; 28,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,39; 25,81</t>
+          <t>21,31; 25,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,5; 25,05</t>
+          <t>20,46; 25,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,56; 24,16</t>
+          <t>19,82; 24,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,39; 26,57</t>
+          <t>21,32; 26,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 18,15</t>
+          <t>13,18; 17,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,08</t>
+          <t>15,24; 20,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,11</t>
+          <t>13,42; 18,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 15,5</t>
+          <t>6,4; 15,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,56; 34,79</t>
+          <t>28,64; 34,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,66; 30,55</t>
+          <t>24,43; 30,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,42; 26,92</t>
+          <t>21,34; 27,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,43; 26,76</t>
+          <t>22,4; 26,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,09; 25,78</t>
+          <t>21,82; 25,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,51; 24,41</t>
+          <t>20,56; 24,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 21,79</t>
+          <t>18,15; 21,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 20,23</t>
+          <t>11,33; 20,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,8</t>
+          <t>13,4; 19,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 19,5</t>
+          <t>13,46; 19,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,13; 18,85</t>
+          <t>13,4; 18,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,92</t>
+          <t>12,96; 18,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 29,45</t>
+          <t>23,23; 29,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,21</t>
+          <t>24,26; 31,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,81; 25,14</t>
+          <t>19,08; 25,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 21,16</t>
+          <t>8,39; 21,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 23,52</t>
+          <t>19,0; 23,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,8; 24,41</t>
+          <t>20,06; 24,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,26</t>
+          <t>16,94; 21,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 18,72</t>
+          <t>10,53; 18,62</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1145,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,65</t>
+          <t>12,34; 16,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,6</t>
+          <t>12,72; 17,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,48</t>
+          <t>12,85; 17,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,49; 21,31</t>
+          <t>16,47; 21,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,58; 29,24</t>
+          <t>23,74; 29,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,11; 27,45</t>
+          <t>22,15; 27,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1180,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,73; 25,66</t>
+          <t>18,2; 25,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 22,7</t>
+          <t>18,98; 22,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 22,12</t>
+          <t>18,21; 21,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,37; 21,1</t>
+          <t>17,43; 21,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 23,01</t>
+          <t>18,51; 22,87</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,93</t>
+          <t>14,44; 16,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 17,99</t>
+          <t>15,33; 18,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,93</t>
+          <t>14,37; 16,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,26</t>
+          <t>12,81; 18,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,3</t>
+          <t>26,94; 30,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,32</t>
+          <t>25,08; 28,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,34</t>
+          <t>22,34; 25,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,05</t>
+          <t>17,85; 24,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,18; 23,25</t>
+          <t>21,21; 23,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,78; 22,83</t>
+          <t>20,7; 22,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,92; 20,98</t>
+          <t>18,94; 20,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,78</t>
+          <t>17,03; 20,9</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud general regular o mala</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>119362</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>127308</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>112482</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>145231</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>205869</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>192980</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>182439</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>185204</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>325231</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>320287</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>294921</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>330436</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>99731; 140190</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>107319; 149403</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93460; 133049</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>126609; 168649</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>184366; 232220</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>170447; 217731</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>159474; 205342</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>147676; 208147</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>294624; 356839</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>286348; 352501</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>267068; 327575</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>290134; 363827</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>149025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>178662</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>159289</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>139772</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>307394</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>280971</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>250104</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>234753</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>456419</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>459633</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>409393</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>374525</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>126645; 171152</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>154860; 204813</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>137068; 185470</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>76341; 184973</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>277368; 337858</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>251466; 311051</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>221911; 281971</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>214599; 256531</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>421017; 498802</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>420578; 503479</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>374074; 448526</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>243777; 433561</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>107805</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>123199</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>119599</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>110452</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>180110</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>215121</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>172737</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>147767</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>287915</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>338320</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>292336</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>258218</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>90890; 129963</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>101518; 148059</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>101751; 140575</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>91302; 133273</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>158870; 204221</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>188563; 242456</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>149556; 198785</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>78288; 201036</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>258847; 318757</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>307261; 372491</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>261400; 327332</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>172441; 304981</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>136216</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>140870</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>140635</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>174870</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>274339</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>259271</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>239835</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>252197</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>410554</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>400142</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>380470</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>427067</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>116263; 155354</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>120395; 166590</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>119980; 165279</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>152625; 200101</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>246583; 305877</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>232535; 288642</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>211685; 270542</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>199305; 279380</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>375996; 447191</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>363640; 435924</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>344468; 419880</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>374194; 462436</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>512408</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>570039</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>532005</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>570325</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>967712</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>948343</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>845115</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>819922</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1480120</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1518382</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1377120</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1390247</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>473016; 553293</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>524226; 619743</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>486983; 574639</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>443052; 631334</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>910198; 1020177</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>891178; 1002317</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>790681; 899567</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>662368; 891380</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1411771; 1549058</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1443221; 1588498</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1312133; 1448582</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1221613; 1499044</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>